--- a/Documents/PayrollRestServicesEndpoints.xlsx
+++ b/Documents/PayrollRestServicesEndpoints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shared\PayrollEngine\Repos\PayrollEngine.Workbench\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shared\PayrollEngine\Repos\PayrollEngine\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C701E2-FD09-408C-A16A-F69034C2EDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EFF7D2-6E49-447B-AD3C-F42F0FEBB7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Endpoints" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="623">
   <si>
     <t>Tenant</t>
   </si>
@@ -893,9 +893,6 @@
     <t>Get payroll result set</t>
   </si>
   <si>
-    <t>(id: result id)</t>
-  </si>
-  <si>
     <t>Get payroll result</t>
   </si>
   <si>
@@ -1196,9 +1193,6 @@
     <t>tenants/:id/regulations/:id/lookups/sets/:id</t>
   </si>
   <si>
-    <t>(an: attribute name)</t>
-  </si>
-  <si>
     <t>tenants/:id/calendar/cycles</t>
   </si>
   <si>
@@ -1220,9 +1214,6 @@
     <t>Get calendar cycle</t>
   </si>
   <si>
-    <t>(cfn: case field name)</t>
-  </si>
-  <si>
     <t>Get case of case field</t>
   </si>
   <si>
@@ -1871,9 +1862,6 @@
     <t>tenants/:id/payrolls/:id/cases/build/:cn</t>
   </si>
   <si>
-    <t>(cn: case name)</t>
-  </si>
-  <si>
     <t>Build payroll case set</t>
   </si>
   <si>
@@ -1985,13 +1973,31 @@
     <t>SharedRegulation</t>
   </si>
   <si>
-    <t>use of POST instead of GET according RFC7231 https://datatracker.ietf.org/doc/html/rfc7231#section-4.3.1</t>
-  </si>
-  <si>
     <t>api/</t>
   </si>
   <si>
     <t>Payroll Engine - REST Service Endpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>an: attribute name</t>
+  </si>
+  <si>
+    <t>cfn: case field name</t>
+  </si>
+  <si>
+    <t>cn: case name</t>
+  </si>
+  <si>
+    <t>id: result id</t>
+  </si>
+  <si>
+    <t>Use of POST instead of GET according RFC7231 https://datatracker.ietf.org/doc/html/rfc7231#section-4.3.1</t>
+  </si>
+  <si>
+    <t>Verison:</t>
   </si>
 </sst>
 </file>
@@ -2098,12 +2104,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFCCFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2121,14 +2127,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="dotted">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2138,31 +2148,9 @@
       <right style="dotted">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2173,16 +2161,9 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2192,46 +2173,39 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
+      <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="dotted">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2241,11 +2215,11 @@
       <right style="dotted">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2256,11 +2230,11 @@
       <right style="dotted">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2269,11 +2243,11 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2281,12 +2255,53 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="dotted">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2297,9 +2312,11 @@
       <right style="dotted">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2308,20 +2325,11 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2329,73 +2337,27 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="dotted">
-        <color auto="1"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="dotted">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
       <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2403,28 +2365,10 @@
       <left/>
       <right/>
       <top style="dotted">
-        <color auto="1"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2432,22 +2376,39 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="dotted">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="dotted">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -2459,61 +2420,10 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2525,73 +2435,10 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2599,10 +2446,120 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2610,25 +2567,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="dotted">
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -2639,7 +2580,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2677,23 +2618,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2707,40 +2657,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2749,185 +2729,95 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2936,6 +2826,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3268,3918 +3163,3934 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R186"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:K185"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="1.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="6.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="6.45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="8.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="8.5500000000000007" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="5"/>
+    <row r="5" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>608</v>
-      </c>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>607</v>
-      </c>
       <c r="I6" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:11" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:11" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>612</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>613</v>
-      </c>
-      <c r="H7" s="73" t="s">
-        <v>614</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>615</v>
+      <c r="I7" s="20" t="s">
+        <v>611</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="47" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="84"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="5"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="13" t="s">
+    <row r="9" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="48" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="66"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="5"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="36" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="85"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="5"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="19" t="s">
+    <row r="11" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="58" t="s">
-        <v>539</v>
-      </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="84"/>
+      <c r="C11" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="5"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="66"/>
+      <c r="C12" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33" t="s">
+        <v>534</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="5"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>538</v>
-      </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="66"/>
+      <c r="C13" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="5"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19" t="s">
-        <v>533</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>599</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21" t="s">
-        <v>591</v>
-      </c>
-      <c r="F14" s="50" t="s">
+    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>592</v>
       </c>
-      <c r="G14" s="58" t="s">
-        <v>596</v>
-      </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="58"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="5"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="13" t="s">
-        <v>533</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="59" t="s">
-        <v>594</v>
+    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="33" t="s">
+        <v>590</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>601</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E16" s="18" t="s">
+    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>595</v>
-      </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="85" t="s">
-        <v>593</v>
+      <c r="F16" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42" t="s">
+        <v>589</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="F17" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="G17" s="58" t="s">
+      <c r="F17" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="74"/>
-      <c r="I17" s="84"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="5"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="75" t="s">
+      <c r="G18" s="33"/>
+      <c r="H18" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="33" t="s">
         <v>2</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="29" t="s">
+    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E19" s="31" t="s">
+      <c r="D19" s="48" t="s">
+        <v>617</v>
+      </c>
+      <c r="E19" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="H19" s="77"/>
-      <c r="I19" s="86" t="s">
+      <c r="H19" s="52"/>
+      <c r="I19" s="53" t="s">
         <v>153</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>530</v>
-      </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="59"/>
+      <c r="C20" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="33"/>
       <c r="J20" s="5"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="29" t="s">
+    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="G21" s="62" t="s">
-        <v>358</v>
-      </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="61"/>
+      <c r="C21" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" s="54"/>
+      <c r="G21" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="H21" s="52"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="5"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="29" t="s">
+    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="G22" s="62" t="s">
-        <v>362</v>
-      </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="61"/>
+      <c r="C22" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="76" t="s">
+        <v>360</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="5"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="29" t="s">
+    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31" t="s">
+      <c r="C23" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="G23" s="62" t="s">
-        <v>359</v>
-      </c>
-      <c r="H23" s="77"/>
-      <c r="I23" s="61"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="76" t="s">
+        <v>357</v>
+      </c>
+      <c r="H23" s="52"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="5"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="G24" s="63" t="s">
-        <v>611</v>
-      </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="59"/>
+      <c r="C24" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="77" t="s">
+        <v>607</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="33"/>
       <c r="J24" s="5"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="18" t="s">
-        <v>573</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>575</v>
-      </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="60"/>
+      <c r="C25" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>572</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="40"/>
       <c r="J25" s="5"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="19" t="s">
+    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="F26" s="50" t="s">
+      <c r="E26" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="F26" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="74"/>
-      <c r="I26" s="58"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="5"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="59"/>
-      <c r="H27" s="75" t="s">
+      <c r="G27" s="33"/>
+      <c r="H27" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="33" t="s">
         <v>15</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="13" t="s">
+    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="F28" s="54"/>
+      <c r="G28" s="75" t="s">
+        <v>477</v>
+      </c>
+      <c r="H28" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="G28" s="64" t="s">
-        <v>480</v>
-      </c>
-      <c r="H28" s="75" t="s">
-        <v>481</v>
-      </c>
-      <c r="I28" s="59"/>
+      <c r="I28" s="33"/>
       <c r="J28" s="5"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="26" t="s">
+    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="E29" s="28" t="s">
+      <c r="D29" s="57" t="s">
+        <v>617</v>
+      </c>
+      <c r="E29" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="H29" s="78"/>
-      <c r="I29" s="87" t="s">
+      <c r="H29" s="61"/>
+      <c r="I29" s="62" t="s">
         <v>156</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="13" t="s">
+    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F30" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="G30" s="90" t="s">
-        <v>486</v>
-      </c>
-      <c r="H30" s="75"/>
-      <c r="I30" s="59"/>
+      <c r="G30" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="5"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="G31" s="90"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="59"/>
+    <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="F31" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="33"/>
       <c r="J31" s="5"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="17" t="s">
+    <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="G32" s="90"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="59"/>
+      <c r="F32" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="5"/>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>492</v>
-      </c>
-      <c r="G33" s="90"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="59"/>
+    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="33"/>
       <c r="J33" s="5"/>
       <c r="K33" s="9"/>
     </row>
-    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="G34" s="90"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="59"/>
+    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>491</v>
+      </c>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="33"/>
       <c r="J34" s="5"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="D35" s="14" t="s">
+    <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="D35" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="G35" s="90"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="59"/>
+      <c r="E35" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="G35" s="33"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="5"/>
       <c r="K35" s="9"/>
     </row>
-    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="D36" s="14" t="s">
+    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="G36" s="90"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="59"/>
+      <c r="F36" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="33"/>
       <c r="J36" s="5"/>
       <c r="K36" s="9"/>
     </row>
-    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>500</v>
-      </c>
-      <c r="G37" s="91"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="60"/>
+    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="G37" s="40"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="40"/>
       <c r="J37" s="5"/>
       <c r="K37" s="9"/>
     </row>
-    <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="C38" s="14" t="s">
+    <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="G38" s="90" t="s">
-        <v>391</v>
-      </c>
-      <c r="H38" s="75"/>
-      <c r="I38" s="59"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="H38" s="27"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="5"/>
       <c r="K38" s="9"/>
     </row>
-    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="G39" s="90"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="59"/>
+    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="G39" s="33"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="33"/>
       <c r="J39" s="5"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="C40" s="14" t="s">
+    <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C40" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="30"/>
+      <c r="E40" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="59"/>
+      <c r="F40" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="G40" s="33"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="33"/>
       <c r="J40" s="5"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="G41" s="90"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="59"/>
+    <row r="41" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="33"/>
       <c r="J41" s="5"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>457</v>
-      </c>
-      <c r="G42" s="90"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="59"/>
+    <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="33"/>
       <c r="J42" s="5"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="C43" s="14" t="s">
+    <row r="43" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C43" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="G43" s="90"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="59"/>
+      <c r="E43" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G43" s="33"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="33"/>
       <c r="J43" s="5"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="C44" s="14" t="s">
+    <row r="44" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="17" t="s">
+      <c r="E44" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="G44" s="90"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="59"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="33"/>
       <c r="J44" s="5"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="F45" s="22" t="s">
+    <row r="45" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="C45" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="G45" s="90"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="59"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="G45" s="40"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="40"/>
       <c r="J45" s="5"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="19" t="s">
+    <row r="46" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="G46" s="92" t="s">
-        <v>392</v>
-      </c>
-      <c r="H46" s="74"/>
-      <c r="I46" s="58"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="H46" s="27"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="5"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="13" t="s">
+    <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="17" t="s">
+      <c r="C47" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="F47" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="F47" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="G47" s="90"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="59"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="33"/>
       <c r="J47" s="5"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="13" t="s">
+    <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="17" t="s">
+      <c r="D48" s="30"/>
+      <c r="E48" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="G48" s="90"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="59"/>
+      <c r="F48" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="33"/>
       <c r="J48" s="5"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="13" t="s">
+    <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="G49" s="90"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="59"/>
+      <c r="C49" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="D49" s="30"/>
+      <c r="E49" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="G49" s="33"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="33"/>
       <c r="J49" s="5"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="13" t="s">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>461</v>
-      </c>
-      <c r="G50" s="90"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="59"/>
+      <c r="C50" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="33"/>
       <c r="J50" s="5"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="13" t="s">
+    <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="G51" s="90"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="59"/>
+      <c r="E51" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="G51" s="33"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="33"/>
       <c r="J51" s="5"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="13" t="s">
+    <row r="52" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C52" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="G52" s="90"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="59"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="33"/>
       <c r="J52" s="5"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
+    <row r="53" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="F53" s="38" t="s">
+      <c r="C53" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="G53" s="91"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="60"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="G53" s="40"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="40"/>
       <c r="J53" s="5"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="13" t="s">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="F54" s="22" t="s">
+      <c r="D54" s="23"/>
+      <c r="E54" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="G54" s="90" t="s">
-        <v>475</v>
-      </c>
-      <c r="H54" s="75"/>
-      <c r="I54" s="59"/>
+      <c r="F54" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="26"/>
       <c r="J54" s="5"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="55" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="13" t="s">
+    <row r="55" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="17" t="s">
+      <c r="D55" s="30"/>
+      <c r="E55" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="F55" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="G55" s="90"/>
-      <c r="H55" s="75" t="s">
-        <v>476</v>
-      </c>
-      <c r="I55" s="59" t="s">
-        <v>477</v>
+      <c r="G55" s="33"/>
+      <c r="H55" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>474</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="9"/>
     </row>
-    <row r="56" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="26" t="s">
+    <row r="56" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="D56" s="57" t="s">
+        <v>617</v>
+      </c>
+      <c r="E56" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="G56" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="H56" s="61"/>
+      <c r="I56" s="62" t="s">
         <v>541</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="F56" s="54" t="s">
-        <v>542</v>
-      </c>
-      <c r="G56" s="93" t="s">
-        <v>543</v>
-      </c>
-      <c r="H56" s="78"/>
-      <c r="I56" s="87" t="s">
-        <v>544</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="9"/>
     </row>
-    <row r="57" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="17" t="s">
+    <row r="57" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="F57" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="F57" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="G57" s="90" t="s">
-        <v>472</v>
-      </c>
-      <c r="H57" s="75"/>
-      <c r="I57" s="59"/>
+      <c r="G57" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="H57" s="27"/>
+      <c r="I57" s="26"/>
       <c r="J57" s="5"/>
       <c r="K57" s="9"/>
     </row>
-    <row r="58" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="13" t="s">
+    <row r="58" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="C58" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="F58" s="22" t="s">
+      <c r="D58" s="30"/>
+      <c r="E58" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" s="33"/>
+      <c r="H58" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="I58" s="33" t="s">
         <v>471</v>
-      </c>
-      <c r="G58" s="90"/>
-      <c r="H58" s="75" t="s">
-        <v>473</v>
-      </c>
-      <c r="I58" s="59" t="s">
-        <v>474</v>
       </c>
       <c r="J58" s="5"/>
       <c r="K58" s="9"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="C59" s="27" t="s">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>542</v>
+      </c>
+      <c r="D59" s="57" t="s">
+        <v>617</v>
+      </c>
+      <c r="E59" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="G59" s="60" t="s">
+        <v>544</v>
+      </c>
+      <c r="H59" s="61"/>
+      <c r="I59" s="62" t="s">
         <v>545</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59" s="54" t="s">
-        <v>546</v>
-      </c>
-      <c r="G59" s="93" t="s">
-        <v>547</v>
-      </c>
-      <c r="H59" s="78"/>
-      <c r="I59" s="87" t="s">
-        <v>548</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="9"/>
     </row>
-    <row r="60" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="13" t="s">
+    <row r="60" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="F60" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="17" t="s">
+      <c r="G60" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="F60" s="22" t="s">
-        <v>516</v>
-      </c>
-      <c r="G60" s="90" t="s">
-        <v>517</v>
-      </c>
-      <c r="H60" s="75"/>
-      <c r="I60" s="59"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="26"/>
       <c r="J60" s="5"/>
       <c r="K60" s="9"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="G61" s="90"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="59" t="s">
-        <v>520</v>
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="F61" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="G61" s="33"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="33" t="s">
+        <v>517</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="9"/>
     </row>
-    <row r="62" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="17" t="s">
+    <row r="62" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="D62" s="30"/>
+      <c r="E62" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="F62" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="G62" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="F62" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="G62" s="94" t="s">
-        <v>563</v>
-      </c>
-      <c r="H62" s="75"/>
-      <c r="I62" s="59"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="33"/>
       <c r="J62" s="5"/>
       <c r="K62" s="9"/>
     </row>
-    <row r="63" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>566</v>
-      </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="18" t="s">
+    <row r="63" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="D63" s="37"/>
+      <c r="E63" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="F63" s="45" t="s">
         <v>559</v>
       </c>
-      <c r="F63" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="G63" s="91"/>
-      <c r="H63" s="76"/>
-      <c r="I63" s="60" t="s">
-        <v>564</v>
+      <c r="G63" s="40"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="40" t="s">
+        <v>561</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="13" t="s">
+    <row r="64" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="14"/>
-      <c r="E64" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G64" s="90" t="s">
+      <c r="D64" s="23"/>
+      <c r="E64" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="G64" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="75"/>
-      <c r="I64" s="59"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="26"/>
       <c r="J64" s="5"/>
       <c r="K64" s="9"/>
     </row>
-    <row r="65" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="13" t="s">
+    <row r="65" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="14"/>
-      <c r="E65" s="17" t="s">
+      <c r="D65" s="30"/>
+      <c r="E65" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="F65" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="90"/>
-      <c r="H65" s="75" t="s">
+      <c r="G65" s="33"/>
+      <c r="H65" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I65" s="59" t="s">
+      <c r="I65" s="33" t="s">
         <v>10</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="13" t="s">
+    <row r="66" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="D66" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E66" s="31" t="s">
+      <c r="D66" s="48" t="s">
+        <v>617</v>
+      </c>
+      <c r="E66" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F66" s="52" t="s">
+      <c r="F66" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="G66" s="95" t="s">
+      <c r="G66" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="H66" s="77"/>
-      <c r="I66" s="86" t="s">
+      <c r="H66" s="52"/>
+      <c r="I66" s="53" t="s">
         <v>159</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="9"/>
     </row>
-    <row r="67" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="39" t="s">
+    <row r="67" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="F67" s="45" t="s">
-        <v>275</v>
-      </c>
-      <c r="G67" s="96" t="s">
-        <v>390</v>
-      </c>
-      <c r="H67" s="79"/>
-      <c r="I67" s="68"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="F67" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="G67" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="H67" s="34"/>
+      <c r="I67" s="33"/>
       <c r="J67" s="5"/>
       <c r="K67" s="9"/>
     </row>
-    <row r="68" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="13" t="s">
+    <row r="68" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="D68" s="14"/>
-      <c r="E68" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="F68" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="G68" s="59"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="59"/>
+      <c r="C68" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="D68" s="30"/>
+      <c r="E68" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="F68" s="44" t="s">
+        <v>416</v>
+      </c>
+      <c r="G68" s="33"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="33"/>
       <c r="J68" s="5"/>
       <c r="K68" s="9"/>
     </row>
-    <row r="69" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="13" t="s">
+    <row r="69" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="17" t="s">
+      <c r="D69" s="30"/>
+      <c r="E69" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F69" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="G69" s="59"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="59"/>
+      <c r="F69" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="G69" s="33"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="33"/>
       <c r="J69" s="5"/>
       <c r="K69" s="9"/>
     </row>
-    <row r="70" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="13" t="s">
+    <row r="70" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="F70" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="G70" s="59"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="59"/>
+      <c r="C70" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="D70" s="30"/>
+      <c r="E70" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="F70" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="G70" s="33"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="33"/>
       <c r="J70" s="5"/>
       <c r="K70" s="9"/>
     </row>
-    <row r="71" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="13" t="s">
+    <row r="71" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="G71" s="59"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="59"/>
+      <c r="C71" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="D71" s="30"/>
+      <c r="E71" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="F71" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="G71" s="33"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="33"/>
       <c r="J71" s="5"/>
       <c r="K71" s="9"/>
     </row>
-    <row r="72" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="13" t="s">
+    <row r="72" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E72" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="G72" s="59"/>
-      <c r="H72" s="75"/>
-      <c r="I72" s="59"/>
+      <c r="E72" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="G72" s="33"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="33"/>
       <c r="J72" s="5"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="13" t="s">
+    <row r="73" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="22" t="s">
+      <c r="F73" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="G73" s="59"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="59"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="33"/>
       <c r="J73" s="5"/>
       <c r="K73" s="9"/>
     </row>
-    <row r="74" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
+    <row r="74" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="D74" s="16"/>
-      <c r="E74" s="18" t="s">
+      <c r="C74" s="37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D74" s="37"/>
+      <c r="E74" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="F74" s="45" t="s">
         <v>422</v>
       </c>
-      <c r="F74" s="38" t="s">
-        <v>425</v>
-      </c>
-      <c r="G74" s="60"/>
-      <c r="H74" s="76"/>
-      <c r="I74" s="60"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="40"/>
       <c r="J74" s="5"/>
       <c r="K74" s="9"/>
     </row>
-    <row r="75" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="13" t="s">
+    <row r="75" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D75" s="14"/>
-      <c r="E75" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="G75" s="59" t="s">
+      <c r="D75" s="23"/>
+      <c r="E75" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F75" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="G75" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="H75" s="75"/>
-      <c r="I75" s="59"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="26"/>
       <c r="J75" s="5"/>
       <c r="K75" s="9"/>
     </row>
-    <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="13" t="s">
+    <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C76" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="E76" s="17" t="s">
+      <c r="C76" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="E76" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="F76" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="G76" s="67"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="59"/>
+      <c r="F76" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="G76" s="63"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="33"/>
       <c r="J76" s="5"/>
       <c r="K76" s="9"/>
     </row>
-    <row r="77" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="13" t="s">
+    <row r="77" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="17" t="s">
+      <c r="D77" s="30"/>
+      <c r="E77" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="F77" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="G77" s="59"/>
-      <c r="H77" s="75" t="s">
+      <c r="G77" s="33"/>
+      <c r="H77" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="I77" s="59" t="s">
+      <c r="I77" s="33" t="s">
         <v>233</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" s="9"/>
     </row>
-    <row r="78" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="13" t="s">
+    <row r="78" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C78" s="30" t="s">
+      <c r="C78" s="48" t="s">
+        <v>546</v>
+      </c>
+      <c r="D78" s="48" t="s">
+        <v>617</v>
+      </c>
+      <c r="E78" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78" s="50" t="s">
+        <v>547</v>
+      </c>
+      <c r="G78" s="51" t="s">
+        <v>548</v>
+      </c>
+      <c r="H78" s="64"/>
+      <c r="I78" s="53" t="s">
         <v>549</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F78" s="52" t="s">
-        <v>550</v>
-      </c>
-      <c r="G78" s="61" t="s">
-        <v>551</v>
-      </c>
-      <c r="H78" s="80"/>
-      <c r="I78" s="86" t="s">
-        <v>552</v>
       </c>
       <c r="J78" s="5"/>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="39" t="s">
+    <row r="79" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="C79" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="D79" s="40"/>
-      <c r="E79" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="F79" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="G79" s="68" t="s">
+      <c r="D79" s="30"/>
+      <c r="E79" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="F79" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="G79" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="H79" s="79"/>
-      <c r="I79" s="68"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="33"/>
       <c r="J79" s="5"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="13" t="s">
+    <row r="80" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="17" t="s">
+      <c r="D80" s="30"/>
+      <c r="E80" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="G80" s="59"/>
-      <c r="H80" s="75" t="s">
+      <c r="G80" s="33"/>
+      <c r="H80" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="I80" s="59" t="s">
+      <c r="I80" s="33" t="s">
         <v>56</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="13" t="s">
+    <row r="81" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="D81" s="14"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="75" t="s">
-        <v>506</v>
-      </c>
-      <c r="I81" s="59"/>
+      <c r="C81" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="D81" s="30"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="I81" s="33"/>
       <c r="J81" s="5"/>
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="13" t="s">
+    <row r="82" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="F82" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="G82" s="59" t="s">
+      <c r="D82" s="30"/>
+      <c r="E82" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F82" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="G82" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="H82" s="75"/>
-      <c r="I82" s="59"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="33"/>
       <c r="J82" s="5"/>
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="13" t="s">
+    <row r="83" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C83" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="17" t="s">
+      <c r="D83" s="30"/>
+      <c r="E83" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="G83" s="59"/>
-      <c r="H83" s="75" t="s">
+      <c r="G83" s="33"/>
+      <c r="H83" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I83" s="59" t="s">
+      <c r="I83" s="33" t="s">
         <v>58</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="13" t="s">
+    <row r="84" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C84" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E84" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="F84" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="G84" s="59"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="59"/>
+      <c r="E84" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="F84" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G84" s="33"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="33"/>
       <c r="J84" s="5"/>
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="13" t="s">
+    <row r="85" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="17" t="s">
+      <c r="E85" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="F85" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="G85" s="59"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="59" t="s">
+      <c r="G85" s="33"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="33" t="s">
         <v>59</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="9"/>
     </row>
-    <row r="86" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="13" t="s">
+    <row r="86" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E86" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="F86" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="G86" s="59"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="59"/>
+      <c r="E86" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="F86" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="G86" s="33"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="33"/>
       <c r="J86" s="5"/>
       <c r="K86" s="9"/>
     </row>
-    <row r="87" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="42" t="s">
+    <row r="87" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C87" s="43" t="s">
+      <c r="C87" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="D87" s="43" t="s">
+      <c r="D87" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E87" s="44" t="s">
+      <c r="E87" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="55" t="s">
+      <c r="F87" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="G87" s="69"/>
-      <c r="H87" s="81"/>
-      <c r="I87" s="69" t="s">
+      <c r="G87" s="33"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="33" t="s">
         <v>63</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="13" t="s">
+    <row r="88" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F88" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="G88" s="59" t="s">
+      <c r="D88" s="30"/>
+      <c r="E88" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="F88" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="G88" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="H88" s="75"/>
-      <c r="I88" s="59"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="33"/>
       <c r="J88" s="5"/>
       <c r="K88" s="9"/>
     </row>
-    <row r="89" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="13" t="s">
+    <row r="89" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="D89" s="14"/>
-      <c r="E89" s="17" t="s">
+      <c r="D89" s="30"/>
+      <c r="E89" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F89" s="22" t="s">
+      <c r="F89" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="G89" s="59"/>
-      <c r="H89" s="75" t="s">
+      <c r="G89" s="33"/>
+      <c r="H89" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="I89" s="59" t="s">
+      <c r="I89" s="33" t="s">
         <v>61</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="9"/>
     </row>
-    <row r="90" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="13" t="s">
+    <row r="90" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C90" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="75" t="s">
-        <v>508</v>
-      </c>
-      <c r="I90" s="59"/>
+      <c r="C90" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="D90" s="30"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="34" t="s">
+        <v>505</v>
+      </c>
+      <c r="I90" s="33"/>
       <c r="J90" s="5"/>
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="13" t="s">
+    <row r="91" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C91" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="F91" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="G91" s="59"/>
-      <c r="H91" s="75"/>
-      <c r="I91" s="59"/>
+      <c r="E91" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="F91" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="G91" s="33"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="33"/>
       <c r="J91" s="5"/>
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="13" t="s">
+    <row r="92" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="E92" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F92" s="22" t="s">
+      <c r="F92" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="G92" s="59"/>
-      <c r="H92" s="75"/>
-      <c r="I92" s="59" t="s">
+      <c r="G92" s="33"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="33" t="s">
         <v>62</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="9"/>
     </row>
-    <row r="93" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="39" t="s">
+    <row r="93" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="D93" s="40"/>
-      <c r="E93" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="F93" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="G93" s="68" t="s">
+      <c r="D93" s="30"/>
+      <c r="E93" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="F93" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="G93" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="H93" s="79"/>
-      <c r="I93" s="68"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="33"/>
       <c r="J93" s="5"/>
       <c r="K93" s="9"/>
     </row>
-    <row r="94" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="13" t="s">
+    <row r="94" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="D94" s="14"/>
-      <c r="E94" s="17" t="s">
+      <c r="D94" s="30"/>
+      <c r="E94" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="F94" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="G94" s="59"/>
-      <c r="H94" s="75" t="s">
+      <c r="G94" s="33"/>
+      <c r="H94" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="I94" s="59" t="s">
+      <c r="I94" s="33" t="s">
         <v>42</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="13" t="s">
+    <row r="95" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C95" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="D95" s="14"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="75" t="s">
-        <v>502</v>
-      </c>
-      <c r="I95" s="59"/>
+      <c r="C95" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="D95" s="30"/>
+      <c r="E95" s="31"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="63"/>
+      <c r="H95" s="34" t="s">
+        <v>499</v>
+      </c>
+      <c r="I95" s="33"/>
       <c r="J95" s="5"/>
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="13" t="s">
+    <row r="96" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C96" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="17" t="s">
-        <v>304</v>
-      </c>
-      <c r="F96" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="G96" s="59"/>
-      <c r="H96" s="75"/>
-      <c r="I96" s="59"/>
+      <c r="E96" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F96" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="G96" s="33"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="33"/>
       <c r="J96" s="5"/>
       <c r="K96" s="9"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="42" t="s">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="C97" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E97" s="44" t="s">
+      <c r="E97" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F97" s="55" t="s">
+      <c r="F97" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G97" s="69"/>
-      <c r="H97" s="81"/>
-      <c r="I97" s="69" t="s">
+      <c r="G97" s="33"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="33" t="s">
         <v>44</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="9"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="13" t="s">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="D98" s="14"/>
-      <c r="E98" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="F98" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="G98" s="59" t="s">
+      <c r="D98" s="30"/>
+      <c r="E98" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="F98" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="G98" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H98" s="75"/>
-      <c r="I98" s="59"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="33"/>
       <c r="J98" s="5"/>
       <c r="K98" s="9"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="13" t="s">
+    <row r="99" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C99" s="30" t="s">
         <v>213</v>
       </c>
-      <c r="D99" s="14"/>
-      <c r="E99" s="17" t="s">
+      <c r="D99" s="30"/>
+      <c r="E99" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F99" s="22" t="s">
+      <c r="F99" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G99" s="59"/>
-      <c r="H99" s="75" t="s">
+      <c r="G99" s="33"/>
+      <c r="H99" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I99" s="59" t="s">
+      <c r="I99" s="33" t="s">
         <v>26</v>
       </c>
       <c r="J99" s="5"/>
       <c r="K99" s="9"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="13" t="s">
+    <row r="100" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C100" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="D100" s="14"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="75" t="s">
-        <v>504</v>
-      </c>
-      <c r="I100" s="59"/>
+      <c r="C100" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="D100" s="30"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="I100" s="33"/>
       <c r="J100" s="5"/>
       <c r="K100" s="9"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="13" t="s">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C101" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E101" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="F101" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="G101" s="59"/>
-      <c r="H101" s="75"/>
-      <c r="I101" s="59"/>
+      <c r="E101" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F101" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="G101" s="33"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="33"/>
       <c r="J101" s="5"/>
       <c r="K101" s="9"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="13" t="s">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E102" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F102" s="22" t="s">
+      <c r="F102" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G102" s="59"/>
-      <c r="H102" s="75"/>
-      <c r="I102" s="59" t="s">
+      <c r="G102" s="33"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="33" t="s">
         <v>31</v>
       </c>
       <c r="J102" s="5"/>
       <c r="K102" s="9"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="39" t="s">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C103" s="40" t="s">
+      <c r="C103" s="30" t="s">
         <v>216</v>
       </c>
-      <c r="D103" s="40"/>
-      <c r="E103" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="F103" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="G103" s="68" t="s">
+      <c r="D103" s="30"/>
+      <c r="E103" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="F103" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="G103" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="H103" s="79"/>
-      <c r="I103" s="68"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="33"/>
       <c r="J103" s="5"/>
       <c r="K103" s="9"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="13" t="s">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C104" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="17" t="s">
+      <c r="C104" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="D104" s="30"/>
+      <c r="E104" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="F104" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="F104" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="G104" s="59"/>
-      <c r="H104" s="75"/>
-      <c r="I104" s="59"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="33"/>
       <c r="J104" s="5"/>
       <c r="K104" s="9"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="13" t="s">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C105" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="E105" s="17" t="s">
+      <c r="C105" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="F105" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="F105" s="22" t="s">
+      <c r="G105" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="G105" s="59" t="s">
-        <v>332</v>
-      </c>
-      <c r="H105" s="75"/>
-      <c r="I105" s="59" t="s">
-        <v>528</v>
+      <c r="H105" s="34"/>
+      <c r="I105" s="33" t="s">
+        <v>525</v>
       </c>
       <c r="J105" s="5"/>
       <c r="K105" s="9"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="13" t="s">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="17" t="s">
+      <c r="D106" s="30"/>
+      <c r="E106" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="F106" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="G106" s="59"/>
-      <c r="H106" s="75" t="s">
+      <c r="G106" s="33"/>
+      <c r="H106" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I106" s="59" t="s">
+      <c r="I106" s="33" t="s">
         <v>66</v>
       </c>
       <c r="J106" s="5"/>
       <c r="K106" s="9"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="13" t="s">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C107" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E107" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="F107" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="G107" s="59"/>
-      <c r="H107" s="75"/>
-      <c r="I107" s="59"/>
+      <c r="E107" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="F107" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="G107" s="33"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="33"/>
       <c r="J107" s="5"/>
       <c r="K107" s="9"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="13" t="s">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C108" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="F108" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="G108" s="59"/>
-      <c r="H108" s="75"/>
-      <c r="I108" s="59"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F108" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="G108" s="33"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="33"/>
       <c r="J108" s="5"/>
       <c r="K108" s="9"/>
     </row>
-    <row r="109" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="13" t="s">
+    <row r="109" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C109" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="D109" s="14"/>
-      <c r="E109" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="F109" s="22" t="s">
-        <v>558</v>
-      </c>
-      <c r="G109" s="59"/>
-      <c r="H109" s="75"/>
-      <c r="I109" s="59"/>
+      <c r="C109" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="D109" s="30"/>
+      <c r="E109" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="F109" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="G109" s="33"/>
+      <c r="H109" s="34"/>
+      <c r="I109" s="33"/>
       <c r="J109" s="5"/>
       <c r="K109" s="9"/>
     </row>
-    <row r="110" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="13" t="s">
+    <row r="110" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C110" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E110" s="17" t="s">
+      <c r="E110" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F110" s="22" t="s">
+      <c r="F110" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="G110" s="59" t="s">
+      <c r="G110" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="H110" s="75" t="s">
+      <c r="H110" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="I110" s="59" t="s">
+      <c r="I110" s="33" t="s">
         <v>181</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="9"/>
     </row>
-    <row r="111" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="42" t="s">
+    <row r="111" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C111" s="43" t="s">
+      <c r="C111" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="D111" s="43" t="s">
+      <c r="D111" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E111" s="44" t="s">
-        <v>310</v>
-      </c>
-      <c r="F111" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="G111" s="69"/>
-      <c r="H111" s="81"/>
-      <c r="I111" s="69"/>
+      <c r="E111" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="F111" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="G111" s="33"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="33"/>
       <c r="J111" s="5"/>
       <c r="K111" s="9"/>
     </row>
-    <row r="112" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="13" t="s">
+    <row r="112" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="D112" s="14"/>
-      <c r="E112" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="F112" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="G112" s="59" t="s">
+      <c r="D112" s="30"/>
+      <c r="E112" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="F112" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="G112" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="H112" s="75"/>
-      <c r="I112" s="59"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="33"/>
       <c r="J112" s="5"/>
       <c r="K112" s="9"/>
     </row>
-    <row r="113" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="13" t="s">
+    <row r="113" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C113" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D113" s="14"/>
-      <c r="E113" s="17" t="s">
+      <c r="D113" s="30"/>
+      <c r="E113" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F113" s="22" t="s">
+      <c r="F113" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="G113" s="59"/>
-      <c r="H113" s="75" t="s">
+      <c r="G113" s="33"/>
+      <c r="H113" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="I113" s="59" t="s">
+      <c r="I113" s="33" t="s">
         <v>86</v>
       </c>
       <c r="J113" s="5"/>
       <c r="K113" s="9"/>
     </row>
-    <row r="114" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="13" t="s">
+    <row r="114" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C114" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E114" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="F114" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="G114" s="59"/>
-      <c r="H114" s="75"/>
-      <c r="I114" s="59"/>
+      <c r="E114" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="F114" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="G114" s="33"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="33"/>
       <c r="J114" s="5"/>
       <c r="K114" s="9"/>
     </row>
-    <row r="115" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="13" t="s">
+    <row r="115" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E115" s="17" t="s">
+      <c r="E115" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F115" s="22" t="s">
+      <c r="F115" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="G115" s="59"/>
-      <c r="H115" s="75"/>
-      <c r="I115" s="59" t="s">
+      <c r="G115" s="33"/>
+      <c r="H115" s="34"/>
+      <c r="I115" s="33" t="s">
         <v>88</v>
       </c>
       <c r="J115" s="5"/>
       <c r="K115" s="9"/>
     </row>
-    <row r="116" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="39" t="s">
+    <row r="116" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C116" s="40" t="s">
-        <v>405</v>
-      </c>
-      <c r="D116" s="40"/>
-      <c r="E116" s="41" t="s">
+      <c r="C116" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="D116" s="30"/>
+      <c r="E116" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="F116" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G116" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="H116" s="34" t="s">
         <v>372</v>
       </c>
-      <c r="F116" s="45" t="s">
-        <v>373</v>
-      </c>
-      <c r="G116" s="68" t="s">
-        <v>374</v>
-      </c>
-      <c r="H116" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="I116" s="68"/>
+      <c r="I116" s="33"/>
       <c r="J116" s="5"/>
       <c r="K116" s="9"/>
     </row>
-    <row r="117" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="13" t="s">
+    <row r="117" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C117" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="D117" s="14"/>
-      <c r="E117" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="F117" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="G117" s="59"/>
-      <c r="H117" s="75"/>
-      <c r="I117" s="59" t="s">
-        <v>377</v>
+      <c r="C117" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="D117" s="30"/>
+      <c r="E117" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="F117" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="G117" s="33"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="33" t="s">
+        <v>374</v>
       </c>
       <c r="J117" s="5"/>
       <c r="K117" s="9"/>
     </row>
-    <row r="118" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="13" t="s">
+    <row r="118" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C118" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="D118" s="14"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="59"/>
-      <c r="H118" s="75" t="s">
-        <v>512</v>
-      </c>
-      <c r="I118" s="59"/>
+      <c r="C118" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="D118" s="30"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="I118" s="33"/>
       <c r="J118" s="5"/>
       <c r="K118" s="9"/>
     </row>
-    <row r="119" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="13" t="s">
+    <row r="119" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C119" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E119" s="31" t="s">
+      <c r="C119" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="D119" s="48" t="s">
+        <v>617</v>
+      </c>
+      <c r="E119" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F119" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="G119" s="61" t="s">
-        <v>379</v>
-      </c>
-      <c r="H119" s="77"/>
-      <c r="I119" s="86" t="s">
-        <v>380</v>
+      <c r="F119" s="50" t="s">
+        <v>375</v>
+      </c>
+      <c r="G119" s="51" t="s">
+        <v>376</v>
+      </c>
+      <c r="H119" s="52"/>
+      <c r="I119" s="53" t="s">
+        <v>377</v>
       </c>
       <c r="J119" s="5"/>
       <c r="K119" s="9"/>
     </row>
-    <row r="120" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="13" t="s">
+    <row r="120" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C120" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="D120" s="14"/>
-      <c r="E120" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="G120" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="H120" s="75"/>
-      <c r="I120" s="59" t="s">
-        <v>377</v>
+      <c r="C120" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="D120" s="30"/>
+      <c r="E120" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="F120" s="54"/>
+      <c r="G120" s="75" t="s">
+        <v>390</v>
+      </c>
+      <c r="H120" s="34"/>
+      <c r="I120" s="33" t="s">
+        <v>374</v>
       </c>
       <c r="J120" s="5"/>
       <c r="K120" s="9"/>
     </row>
-    <row r="121" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="13" t="s">
+    <row r="121" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C121" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="D121" s="14"/>
-      <c r="E121" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="F121" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="G121" s="66" t="s">
-        <v>382</v>
-      </c>
-      <c r="H121" s="75"/>
-      <c r="I121" s="59"/>
+      <c r="C121" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="D121" s="30"/>
+      <c r="E121" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="F121" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G121" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="H121" s="34"/>
+      <c r="I121" s="33"/>
       <c r="J121" s="5"/>
       <c r="K121" s="9"/>
     </row>
-    <row r="122" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="13" t="s">
+    <row r="122" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C122" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="D122" s="14"/>
-      <c r="E122" s="17" t="s">
-        <v>387</v>
-      </c>
-      <c r="F122" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="G122" s="59"/>
-      <c r="H122" s="75" t="s">
+      <c r="C122" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="D122" s="30"/>
+      <c r="E122" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="I122" s="59" t="s">
-        <v>385</v>
+      <c r="F122" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="G122" s="33"/>
+      <c r="H122" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="I122" s="33" t="s">
+        <v>382</v>
       </c>
       <c r="J122" s="5"/>
       <c r="K122" s="9"/>
     </row>
-    <row r="123" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="13" t="s">
+    <row r="123" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C123" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="D123" s="14"/>
-      <c r="E123" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="F123" s="22" t="s">
-        <v>435</v>
-      </c>
-      <c r="G123" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="H123" s="75"/>
-      <c r="I123" s="59"/>
+      <c r="C123" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="D123" s="30"/>
+      <c r="E123" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="F123" s="44" t="s">
+        <v>432</v>
+      </c>
+      <c r="G123" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="H123" s="34"/>
+      <c r="I123" s="33"/>
       <c r="J123" s="5"/>
       <c r="K123" s="9"/>
     </row>
-    <row r="124" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="13" t="s">
+    <row r="124" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C124" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="D124" s="14"/>
-      <c r="E124" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="F124" s="22" t="s">
+      <c r="C124" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="D124" s="30"/>
+      <c r="E124" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="F124" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="G124" s="33"/>
+      <c r="H124" s="34" t="s">
         <v>434</v>
       </c>
-      <c r="G124" s="59"/>
-      <c r="H124" s="75" t="s">
-        <v>437</v>
-      </c>
-      <c r="I124" s="59" t="s">
-        <v>438</v>
+      <c r="I124" s="33" t="s">
+        <v>435</v>
       </c>
       <c r="J124" s="5"/>
       <c r="K124" s="9"/>
     </row>
-    <row r="125" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="13" t="s">
+    <row r="125" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="C125" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="D125" s="14"/>
-      <c r="E125" s="17" t="s">
-        <v>388</v>
-      </c>
-      <c r="F125" s="22"/>
-      <c r="G125" s="59" t="s">
-        <v>394</v>
-      </c>
-      <c r="H125" s="75"/>
-      <c r="I125" s="59"/>
+      <c r="C125" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="D125" s="30"/>
+      <c r="E125" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F125" s="44"/>
+      <c r="G125" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="H125" s="34"/>
+      <c r="I125" s="33"/>
       <c r="J125" s="5"/>
       <c r="K125" s="9"/>
     </row>
-    <row r="126" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
+    <row r="126" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="C126" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="D126" s="16"/>
-      <c r="E126" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="G126" s="70" t="s">
-        <v>389</v>
-      </c>
-      <c r="H126" s="76"/>
-      <c r="I126" s="60" t="s">
-        <v>395</v>
+      <c r="C126" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="D126" s="37"/>
+      <c r="E126" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="F126" s="65"/>
+      <c r="G126" s="78" t="s">
+        <v>386</v>
+      </c>
+      <c r="H126" s="41"/>
+      <c r="I126" s="40" t="s">
+        <v>392</v>
       </c>
       <c r="J126" s="5"/>
       <c r="K126" s="9"/>
     </row>
-    <row r="127" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="13" t="s">
+    <row r="127" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D127" s="14"/>
-      <c r="E127" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="F127" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="G127" s="59" t="s">
+      <c r="D127" s="23"/>
+      <c r="E127" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="F127" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="G127" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H127" s="75"/>
-      <c r="I127" s="59"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="26"/>
       <c r="J127" s="5"/>
       <c r="K127" s="9"/>
     </row>
-    <row r="128" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="13" t="s">
+    <row r="128" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C128" s="14" t="s">
+      <c r="C128" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D128" s="14"/>
-      <c r="E128" s="17" t="s">
+      <c r="D128" s="30"/>
+      <c r="E128" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F128" s="22" t="s">
+      <c r="F128" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G128" s="59"/>
-      <c r="H128" s="75" t="s">
+      <c r="G128" s="33"/>
+      <c r="H128" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I128" s="59" t="s">
+      <c r="I128" s="33" t="s">
         <v>22</v>
       </c>
       <c r="J128" s="5"/>
       <c r="K128" s="9"/>
     </row>
-    <row r="129" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="29" t="s">
+    <row r="129" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C129" s="30" t="s">
+      <c r="C129" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="D129" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E129" s="31" t="s">
+      <c r="D129" s="48" t="s">
+        <v>617</v>
+      </c>
+      <c r="E129" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F129" s="52" t="s">
+      <c r="F129" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="G129" s="61" t="s">
+      <c r="G129" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="H129" s="80"/>
-      <c r="I129" s="86" t="s">
+      <c r="H129" s="64"/>
+      <c r="I129" s="53" t="s">
         <v>162</v>
       </c>
       <c r="J129" s="5"/>
       <c r="K129" s="9"/>
     </row>
-    <row r="130" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="13" t="s">
+    <row r="130" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C130" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="D130" s="14"/>
-      <c r="E130" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="F130" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="G130" s="59" t="s">
+      <c r="D130" s="30"/>
+      <c r="E130" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="F130" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="G130" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="H130" s="75"/>
-      <c r="I130" s="59"/>
+      <c r="H130" s="34"/>
+      <c r="I130" s="33"/>
       <c r="J130" s="5"/>
       <c r="K130" s="9"/>
     </row>
-    <row r="131" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="13" t="s">
+    <row r="131" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="D131" s="14"/>
-      <c r="E131" s="17" t="s">
+      <c r="D131" s="30"/>
+      <c r="E131" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="F131" s="22" t="s">
+      <c r="F131" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="G131" s="59"/>
-      <c r="H131" s="75" t="s">
+      <c r="G131" s="33"/>
+      <c r="H131" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="I131" s="59" t="s">
+      <c r="I131" s="33" t="s">
         <v>141</v>
       </c>
       <c r="J131" s="5"/>
       <c r="K131" s="9"/>
     </row>
-    <row r="132" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="29" t="s">
+    <row r="132" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C132" s="30" t="s">
+      <c r="C132" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="D132" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E132" s="31" t="s">
+      <c r="D132" s="48" t="s">
+        <v>617</v>
+      </c>
+      <c r="E132" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F132" s="52" t="s">
+      <c r="F132" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="G132" s="61" t="s">
+      <c r="G132" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="H132" s="77"/>
-      <c r="I132" s="86" t="s">
+      <c r="H132" s="52"/>
+      <c r="I132" s="53" t="s">
         <v>165</v>
       </c>
       <c r="J132" s="5"/>
       <c r="K132" s="9"/>
     </row>
-    <row r="133" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="13" t="s">
+    <row r="133" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C133" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="D133" s="14"/>
-      <c r="E133" s="17" t="s">
+      <c r="C133" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="D133" s="30"/>
+      <c r="E133" s="31" t="s">
+        <v>526</v>
+      </c>
+      <c r="F133" s="44" t="s">
         <v>529</v>
       </c>
-      <c r="F133" s="22" t="s">
-        <v>532</v>
-      </c>
-      <c r="G133" s="67"/>
-      <c r="H133" s="75"/>
-      <c r="I133" s="59"/>
+      <c r="G133" s="63"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="33"/>
       <c r="J133" s="5"/>
       <c r="K133" s="9"/>
     </row>
-    <row r="134" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="13" t="s">
+    <row r="134" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="D134" s="14"/>
-      <c r="E134" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="F134" s="22" t="s">
-        <v>451</v>
-      </c>
-      <c r="G134" s="67"/>
-      <c r="H134" s="75"/>
-      <c r="I134" s="59"/>
+      <c r="C134" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="D134" s="30"/>
+      <c r="E134" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="F134" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="G134" s="63"/>
+      <c r="H134" s="34"/>
+      <c r="I134" s="33"/>
       <c r="J134" s="5"/>
       <c r="K134" s="9"/>
     </row>
-    <row r="135" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="13" t="s">
+    <row r="135" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="D135" s="30"/>
+      <c r="E135" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D135" s="14"/>
-      <c r="E135" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="F135" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="G135" s="67" t="s">
-        <v>582</v>
-      </c>
-      <c r="H135" s="75"/>
-      <c r="I135" s="59"/>
+      <c r="F135" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="G135" s="63" t="s">
+        <v>578</v>
+      </c>
+      <c r="H135" s="34"/>
+      <c r="I135" s="33"/>
       <c r="J135" s="5"/>
       <c r="K135" s="9"/>
     </row>
-    <row r="136" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="13" t="s">
+    <row r="136" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="D136" s="14"/>
-      <c r="E136" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="F136" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="G136" s="67"/>
-      <c r="H136" s="75"/>
-      <c r="I136" s="59"/>
+      <c r="C136" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="D136" s="30"/>
+      <c r="E136" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="F136" s="44" t="s">
+        <v>575</v>
+      </c>
+      <c r="G136" s="63"/>
+      <c r="H136" s="34"/>
+      <c r="I136" s="33"/>
       <c r="J136" s="5"/>
       <c r="K136" s="9"/>
     </row>
-    <row r="137" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="13" t="s">
+    <row r="137" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C137" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="D137" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="E137" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="G137" s="64" t="s">
-        <v>581</v>
-      </c>
-      <c r="H137" s="75"/>
-      <c r="I137" s="59"/>
+      <c r="C137" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="D137" s="30" t="s">
+        <v>619</v>
+      </c>
+      <c r="E137" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="F137" s="54"/>
+      <c r="G137" s="75" t="s">
+        <v>577</v>
+      </c>
+      <c r="H137" s="34"/>
+      <c r="I137" s="33"/>
       <c r="J137" s="5"/>
       <c r="K137" s="9"/>
     </row>
-    <row r="138" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="13" t="s">
+    <row r="138" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C138" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="D138" s="14"/>
-      <c r="E138" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="F138" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="G138" s="59"/>
-      <c r="H138" s="75"/>
-      <c r="I138" s="59"/>
+      <c r="C138" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="D138" s="30"/>
+      <c r="E138" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="F138" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="G138" s="33"/>
+      <c r="H138" s="34"/>
+      <c r="I138" s="33"/>
       <c r="J138" s="5"/>
       <c r="K138" s="9"/>
     </row>
-    <row r="139" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="13" t="s">
+    <row r="139" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C139" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="D139" s="14"/>
-      <c r="E139" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="F139" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="G139" s="59"/>
-      <c r="H139" s="75"/>
-      <c r="I139" s="59"/>
+      <c r="C139" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="D139" s="30"/>
+      <c r="E139" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="F139" s="44" t="s">
+        <v>441</v>
+      </c>
+      <c r="G139" s="33"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="33"/>
       <c r="J139" s="5"/>
       <c r="K139" s="9"/>
     </row>
-    <row r="140" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="13" t="s">
+    <row r="140" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C140" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="D140" s="14"/>
-      <c r="E140" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="F140" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="G140" s="59"/>
-      <c r="H140" s="75"/>
-      <c r="I140" s="59"/>
+      <c r="C140" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="D140" s="30"/>
+      <c r="E140" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="F140" s="44" t="s">
+        <v>444</v>
+      </c>
+      <c r="G140" s="33"/>
+      <c r="H140" s="34"/>
+      <c r="I140" s="33"/>
       <c r="J140" s="5"/>
       <c r="K140" s="9"/>
     </row>
-    <row r="141" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="13" t="s">
+    <row r="141" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="D141" s="14"/>
-      <c r="E141" s="17" t="s">
+      <c r="C141" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="F141" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="G141" s="59"/>
-      <c r="H141" s="75"/>
-      <c r="I141" s="59"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="F141" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="G141" s="33"/>
+      <c r="H141" s="34"/>
+      <c r="I141" s="33"/>
       <c r="J141" s="5"/>
       <c r="K141" s="9"/>
     </row>
-    <row r="142" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="13" t="s">
+    <row r="142" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="C142" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D142" s="30"/>
+      <c r="E142" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="D142" s="14"/>
-      <c r="E142" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="F142" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="G142" s="59"/>
-      <c r="H142" s="75"/>
-      <c r="I142" s="59"/>
+      <c r="F142" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="G142" s="33"/>
+      <c r="H142" s="34"/>
+      <c r="I142" s="33"/>
       <c r="J142" s="5"/>
       <c r="K142" s="9"/>
     </row>
-    <row r="143" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="13" t="s">
+    <row r="143" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C143" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D143" s="14"/>
-      <c r="E143" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="F143" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="G143" s="59"/>
-      <c r="H143" s="75"/>
-      <c r="I143" s="59"/>
+      <c r="C143" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="D143" s="30"/>
+      <c r="E143" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="F143" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="G143" s="33"/>
+      <c r="H143" s="34"/>
+      <c r="I143" s="33"/>
       <c r="J143" s="5"/>
       <c r="K143" s="9"/>
     </row>
-    <row r="144" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="13" t="s">
+    <row r="144" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C144" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="D144" s="14"/>
-      <c r="E144" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="F144" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="G144" s="59"/>
-      <c r="H144" s="75"/>
-      <c r="I144" s="59"/>
+      <c r="C144" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="D144" s="30"/>
+      <c r="E144" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="F144" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="G144" s="33"/>
+      <c r="H144" s="34"/>
+      <c r="I144" s="33"/>
       <c r="J144" s="5"/>
       <c r="K144" s="9"/>
     </row>
-    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="13" t="s">
+    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C145" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D145" s="30"/>
+      <c r="E145" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="D145" s="14"/>
-      <c r="E145" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="F145" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="G145" s="59"/>
-      <c r="H145" s="75"/>
-      <c r="I145" s="59"/>
+      <c r="F145" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="G145" s="33"/>
+      <c r="H145" s="34"/>
+      <c r="I145" s="33"/>
       <c r="J145" s="5"/>
       <c r="K145" s="9"/>
     </row>
-    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="29" t="s">
+    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="30" t="s">
-        <v>583</v>
-      </c>
-      <c r="D146" s="30"/>
-      <c r="E146" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="F146" s="52" t="s">
-        <v>584</v>
-      </c>
-      <c r="G146" s="61"/>
-      <c r="H146" s="77"/>
-      <c r="I146" s="61"/>
+      <c r="C146" s="48" t="s">
+        <v>579</v>
+      </c>
+      <c r="D146" s="48"/>
+      <c r="E146" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="F146" s="50" t="s">
+        <v>580</v>
+      </c>
+      <c r="G146" s="51"/>
+      <c r="H146" s="52"/>
+      <c r="I146" s="51"/>
       <c r="J146" s="5"/>
       <c r="K146" s="9"/>
     </row>
-    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="29" t="s">
+    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C147" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="D147" s="30"/>
-      <c r="E147" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="F147" s="52" t="s">
-        <v>588</v>
-      </c>
-      <c r="G147" s="61"/>
-      <c r="H147" s="77"/>
-      <c r="I147" s="61"/>
+      <c r="C147" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="D147" s="48"/>
+      <c r="E147" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F147" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="G147" s="51"/>
+      <c r="H147" s="52"/>
+      <c r="I147" s="51"/>
       <c r="J147" s="5"/>
       <c r="K147" s="9"/>
     </row>
-    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="29" t="s">
+    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C148" s="30" t="s">
-        <v>553</v>
-      </c>
-      <c r="D148" s="30"/>
-      <c r="E148" s="31" t="s">
-        <v>554</v>
-      </c>
-      <c r="F148" s="52" t="s">
-        <v>555</v>
-      </c>
-      <c r="G148" s="61"/>
-      <c r="H148" s="77"/>
-      <c r="I148" s="61"/>
+      <c r="C148" s="48" t="s">
+        <v>550</v>
+      </c>
+      <c r="D148" s="48"/>
+      <c r="E148" s="49" t="s">
+        <v>551</v>
+      </c>
+      <c r="F148" s="50" t="s">
+        <v>552</v>
+      </c>
+      <c r="G148" s="51"/>
+      <c r="H148" s="52"/>
+      <c r="I148" s="51"/>
       <c r="J148" s="5"/>
       <c r="K148" s="9"/>
     </row>
-    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="29" t="s">
+    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C149" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="D149" s="30"/>
-      <c r="E149" s="31" t="s">
-        <v>569</v>
-      </c>
-      <c r="F149" s="52" t="s">
-        <v>440</v>
-      </c>
-      <c r="G149" s="61"/>
-      <c r="H149" s="77"/>
-      <c r="I149" s="61"/>
+      <c r="C149" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="D149" s="48"/>
+      <c r="E149" s="49" t="s">
+        <v>566</v>
+      </c>
+      <c r="F149" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="G149" s="51"/>
+      <c r="H149" s="52"/>
+      <c r="I149" s="51"/>
       <c r="J149" s="5"/>
       <c r="K149" s="9"/>
     </row>
-    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="29" t="s">
+    <row r="150" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C150" s="30" t="s">
-        <v>589</v>
-      </c>
-      <c r="D150" s="30"/>
-      <c r="E150" s="31" t="s">
+      <c r="C150" s="48" t="s">
         <v>585</v>
       </c>
-      <c r="F150" s="52" t="s">
-        <v>586</v>
-      </c>
-      <c r="G150" s="61"/>
-      <c r="H150" s="77"/>
-      <c r="I150" s="61"/>
+      <c r="D150" s="48"/>
+      <c r="E150" s="49" t="s">
+        <v>581</v>
+      </c>
+      <c r="F150" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="G150" s="51"/>
+      <c r="H150" s="52"/>
+      <c r="I150" s="51"/>
       <c r="J150" s="5"/>
       <c r="K150" s="9"/>
     </row>
-    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B151" s="29" t="s">
+    <row r="151" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C151" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="D151" s="30"/>
-      <c r="E151" s="31" t="s">
-        <v>570</v>
-      </c>
-      <c r="F151" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="G151" s="61"/>
-      <c r="H151" s="77"/>
-      <c r="I151" s="61"/>
+      <c r="C151" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="D151" s="48"/>
+      <c r="E151" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="F151" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="G151" s="51"/>
+      <c r="H151" s="52"/>
+      <c r="I151" s="51"/>
       <c r="J151" s="5"/>
       <c r="K151" s="9"/>
     </row>
-    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="29" t="s">
+    <row r="152" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C152" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="D152" s="30"/>
-      <c r="E152" s="31" t="s">
+      <c r="C152" s="48" t="s">
+        <v>564</v>
+      </c>
+      <c r="D152" s="48"/>
+      <c r="E152" s="49" t="s">
+        <v>565</v>
+      </c>
+      <c r="F152" s="50" t="s">
         <v>568</v>
       </c>
-      <c r="F152" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="G152" s="61"/>
-      <c r="H152" s="77"/>
-      <c r="I152" s="61"/>
+      <c r="G152" s="51"/>
+      <c r="H152" s="52"/>
+      <c r="I152" s="51"/>
       <c r="J152" s="5"/>
       <c r="K152" s="9"/>
     </row>
-    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B153" s="26" t="s">
+    <row r="153" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="C153" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="D153" s="27"/>
-      <c r="E153" s="28" t="s">
+      <c r="C153" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="D153" s="57"/>
+      <c r="E153" s="58" t="s">
+        <v>570</v>
+      </c>
+      <c r="F153" s="59" t="s">
         <v>573</v>
       </c>
-      <c r="F153" s="54" t="s">
-        <v>576</v>
-      </c>
-      <c r="G153" s="65"/>
-      <c r="H153" s="78"/>
-      <c r="I153" s="65"/>
+      <c r="G153" s="60"/>
+      <c r="H153" s="61"/>
+      <c r="I153" s="60"/>
       <c r="J153" s="5"/>
       <c r="K153" s="9"/>
     </row>
-    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="13" t="s">
+    <row r="154" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C154" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="D154" s="14"/>
-      <c r="E154" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="F154" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="G154" s="59" t="s">
+      <c r="D154" s="23"/>
+      <c r="E154" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="F154" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="G154" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="H154" s="75"/>
-      <c r="I154" s="59"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="26"/>
       <c r="J154" s="5"/>
       <c r="K154" s="9"/>
     </row>
-    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="13" t="s">
+    <row r="155" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="C155" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D155" s="14"/>
-      <c r="E155" s="17" t="s">
+      <c r="D155" s="30"/>
+      <c r="E155" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F155" s="22" t="s">
+      <c r="F155" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G155" s="59"/>
-      <c r="H155" s="75" t="s">
+      <c r="G155" s="33"/>
+      <c r="H155" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="I155" s="59" t="s">
+      <c r="I155" s="33" t="s">
         <v>29</v>
       </c>
       <c r="J155" s="5"/>
       <c r="K155" s="9"/>
     </row>
-    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="13" t="s">
+    <row r="156" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C156" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="D156" s="14"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="22"/>
-      <c r="G156" s="67"/>
-      <c r="H156" s="75" t="s">
-        <v>510</v>
-      </c>
-      <c r="I156" s="59"/>
+      <c r="C156" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="D156" s="30"/>
+      <c r="E156" s="31"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="63"/>
+      <c r="H156" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="I156" s="33"/>
       <c r="J156" s="5"/>
       <c r="K156" s="9"/>
     </row>
-    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="13" t="s">
+    <row r="157" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="14" t="s">
+      <c r="C157" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D157" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E157" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="F157" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="G157" s="59"/>
-      <c r="H157" s="75"/>
-      <c r="I157" s="59"/>
+      <c r="E157" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="F157" s="44" t="s">
+        <v>317</v>
+      </c>
+      <c r="G157" s="33"/>
+      <c r="H157" s="34"/>
+      <c r="I157" s="33"/>
       <c r="J157" s="5"/>
       <c r="K157" s="9"/>
     </row>
-    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="13" t="s">
+    <row r="158" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="C158" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="D158" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="E158" s="17" t="s">
+      <c r="E158" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="F158" s="22" t="s">
+      <c r="F158" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="G158" s="59"/>
-      <c r="H158" s="75"/>
-      <c r="I158" s="59" t="s">
+      <c r="G158" s="33"/>
+      <c r="H158" s="34"/>
+      <c r="I158" s="33" t="s">
         <v>115</v>
       </c>
       <c r="J158" s="5"/>
       <c r="K158" s="9"/>
     </row>
-    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B159" s="39" t="s">
+    <row r="159" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C159" s="40" t="s">
+      <c r="C159" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="D159" s="40"/>
-      <c r="E159" s="41" t="s">
+      <c r="D159" s="30"/>
+      <c r="E159" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="F159" s="45" t="s">
+      <c r="F159" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="G159" s="96" t="s">
-        <v>368</v>
-      </c>
-      <c r="H159" s="79"/>
-      <c r="I159" s="68"/>
+      <c r="G159" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="H159" s="34"/>
+      <c r="I159" s="33"/>
       <c r="J159" s="5"/>
       <c r="K159" s="9"/>
     </row>
-    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="13" t="s">
+    <row r="160" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C160" s="14" t="s">
+      <c r="C160" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="D160" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="E160" s="17" t="s">
+      <c r="E160" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F160" s="22" t="s">
+      <c r="F160" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="G160" s="90"/>
-      <c r="H160" s="75"/>
-      <c r="I160" s="59" t="s">
+      <c r="G160" s="33"/>
+      <c r="H160" s="34"/>
+      <c r="I160" s="33" t="s">
         <v>106</v>
       </c>
       <c r="J160" s="5"/>
       <c r="K160" s="9"/>
     </row>
-    <row r="161" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="13" t="s">
+    <row r="161" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C161" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="D161" s="14"/>
-      <c r="E161" s="17" t="s">
+      <c r="C161" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="D161" s="30"/>
+      <c r="E161" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="F161" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="G161" s="90"/>
-      <c r="H161" s="75"/>
-      <c r="I161" s="59" t="s">
+      <c r="F161" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="G161" s="33"/>
+      <c r="H161" s="34"/>
+      <c r="I161" s="33" t="s">
         <v>106</v>
       </c>
       <c r="J161" s="5"/>
       <c r="K161" s="9"/>
     </row>
-    <row r="162" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B162" s="13" t="s">
+    <row r="162" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C162" s="14" t="s">
+      <c r="C162" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D162" s="14"/>
-      <c r="E162" s="17" t="s">
+      <c r="D162" s="30"/>
+      <c r="E162" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="F162" s="22" t="s">
+      <c r="F162" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="G162" s="90" t="s">
+      <c r="G162" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="H162" s="75"/>
-      <c r="I162" s="59"/>
+      <c r="H162" s="34"/>
+      <c r="I162" s="33"/>
       <c r="J162" s="5"/>
       <c r="K162" s="9"/>
     </row>
-    <row r="163" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="13" t="s">
+    <row r="163" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C163" s="30" t="s">
+      <c r="C163" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="D163" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="E163" s="31" t="s">
+      <c r="D163" s="57" t="s">
+        <v>617</v>
+      </c>
+      <c r="E163" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="F163" s="52" t="s">
+      <c r="F163" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="G163" s="61" t="s">
+      <c r="G163" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="H163" s="77"/>
-      <c r="I163" s="86" t="s">
+      <c r="H163" s="61"/>
+      <c r="I163" s="62" t="s">
         <v>168</v>
       </c>
       <c r="J163" s="5"/>
       <c r="K163" s="9"/>
     </row>
-    <row r="164" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B164" s="19" t="s">
+    <row r="164" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="C164" s="20" t="s">
+      <c r="C164" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D164" s="20"/>
-      <c r="E164" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="F164" s="50" t="s">
+      <c r="D164" s="23"/>
+      <c r="E164" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="G164" s="58"/>
-      <c r="H164" s="74"/>
-      <c r="I164" s="58" t="s">
-        <v>259</v>
+      <c r="F164" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G164" s="26"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="J164" s="5"/>
       <c r="K164" s="9"/>
     </row>
-    <row r="165" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="13" t="s">
+    <row r="165" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C165" s="14" t="s">
+      <c r="C165" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D165" s="14"/>
-      <c r="E165" s="17" t="s">
+      <c r="D165" s="30"/>
+      <c r="E165" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F165" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="G165" s="59"/>
-      <c r="H165" s="75"/>
-      <c r="I165" s="59"/>
+      <c r="F165" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="G165" s="33"/>
+      <c r="H165" s="34"/>
+      <c r="I165" s="33"/>
       <c r="J165" s="5"/>
       <c r="K165" s="9"/>
     </row>
-    <row r="166" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="13" t="s">
+    <row r="166" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C166" s="14" t="s">
+      <c r="C166" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="D166" s="14"/>
-      <c r="E166" s="17" t="s">
+      <c r="D166" s="30"/>
+      <c r="E166" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F166" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="G166" s="59"/>
-      <c r="H166" s="75"/>
-      <c r="I166" s="59"/>
+      <c r="F166" s="44" t="s">
+        <v>255</v>
+      </c>
+      <c r="G166" s="33"/>
+      <c r="H166" s="34"/>
+      <c r="I166" s="33"/>
       <c r="J166" s="5"/>
       <c r="K166" s="9"/>
     </row>
-    <row r="167" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="13" t="s">
+    <row r="167" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C167" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="D167" s="14"/>
-      <c r="E167" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="F167" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="G167" s="59"/>
-      <c r="H167" s="75"/>
-      <c r="I167" s="59"/>
+      <c r="C167" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="D167" s="30"/>
+      <c r="E167" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="F167" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="G167" s="33"/>
+      <c r="H167" s="34"/>
+      <c r="I167" s="33"/>
       <c r="J167" s="5"/>
       <c r="K167" s="9"/>
     </row>
-    <row r="168" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="13" t="s">
+    <row r="168" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C168" s="14" t="s">
+      <c r="C168" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="D168" s="14"/>
-      <c r="E168" s="17" t="s">
+      <c r="D168" s="30"/>
+      <c r="E168" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F168" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="G168" s="59"/>
-      <c r="H168" s="75"/>
-      <c r="I168" s="59"/>
+      <c r="F168" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="G168" s="33"/>
+      <c r="H168" s="34"/>
+      <c r="I168" s="33"/>
       <c r="J168" s="5"/>
       <c r="K168" s="9"/>
     </row>
-    <row r="169" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="13" t="s">
+    <row r="169" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C169" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="D169" s="14"/>
-      <c r="E169" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="F169" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="G169" s="59"/>
-      <c r="H169" s="75"/>
-      <c r="I169" s="59"/>
+      <c r="C169" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="D169" s="30"/>
+      <c r="E169" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="F169" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="G169" s="33"/>
+      <c r="H169" s="34"/>
+      <c r="I169" s="33"/>
       <c r="J169" s="5"/>
       <c r="K169" s="9"/>
     </row>
-    <row r="170" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="13" t="s">
+    <row r="170" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C170" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="D170" s="14"/>
-      <c r="E170" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="F170" s="22" t="s">
-        <v>527</v>
-      </c>
-      <c r="G170" s="59"/>
-      <c r="H170" s="75"/>
-      <c r="I170" s="59"/>
+      <c r="C170" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="D170" s="30"/>
+      <c r="E170" s="31" t="s">
+        <v>518</v>
+      </c>
+      <c r="F170" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="G170" s="33"/>
+      <c r="H170" s="34"/>
+      <c r="I170" s="33"/>
       <c r="J170" s="5"/>
       <c r="K170" s="9"/>
     </row>
-    <row r="171" spans="2:11" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="29" t="s">
+    <row r="171" spans="2:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="C171" s="30" t="s">
+      <c r="C171" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D171" s="30"/>
-      <c r="E171" s="31" t="s">
+      <c r="D171" s="48"/>
+      <c r="E171" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="F171" s="52" t="s">
+      <c r="F171" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="G171" s="71"/>
-      <c r="H171" s="82"/>
-      <c r="I171" s="71"/>
-      <c r="J171" s="23"/>
-      <c r="K171" s="24"/>
-    </row>
-    <row r="172" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="13" t="s">
+      <c r="G171" s="66"/>
+      <c r="H171" s="67"/>
+      <c r="I171" s="66"/>
+      <c r="J171" s="13"/>
+      <c r="K171" s="14"/>
+    </row>
+    <row r="172" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C172" s="14" t="s">
+      <c r="C172" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="D172" s="14"/>
-      <c r="E172" s="17" t="s">
+      <c r="D172" s="30"/>
+      <c r="E172" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="F172" s="22" t="s">
+      <c r="F172" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="G172" s="59"/>
-      <c r="H172" s="75"/>
-      <c r="I172" s="59"/>
+      <c r="G172" s="33"/>
+      <c r="H172" s="34"/>
+      <c r="I172" s="33"/>
       <c r="J172" s="5"/>
       <c r="K172" s="9"/>
     </row>
-    <row r="173" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B173" s="13" t="s">
+    <row r="173" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C173" s="14" t="s">
+      <c r="C173" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="D173" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E173" s="17" t="s">
+      <c r="D173" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="E173" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="F173" s="22" t="s">
+      <c r="F173" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="G173" s="59"/>
-      <c r="H173" s="75"/>
-      <c r="I173" s="59"/>
+      <c r="G173" s="33"/>
+      <c r="H173" s="34"/>
+      <c r="I173" s="33"/>
       <c r="J173" s="5"/>
       <c r="K173" s="9"/>
     </row>
-    <row r="174" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="13" t="s">
+    <row r="174" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C174" s="14" t="s">
+      <c r="C174" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="D174" s="30"/>
+      <c r="E174" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="F174" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="D174" s="14"/>
-      <c r="E174" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="F174" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="G174" s="59"/>
-      <c r="H174" s="75"/>
-      <c r="I174" s="59"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="34"/>
+      <c r="I174" s="33"/>
       <c r="J174" s="5"/>
       <c r="K174" s="9"/>
     </row>
-    <row r="175" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B175" s="13" t="s">
+    <row r="175" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C175" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="D175" s="14"/>
-      <c r="E175" s="17" t="s">
+      <c r="C175" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D175" s="30"/>
+      <c r="E175" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F175" s="22" t="s">
-        <v>524</v>
-      </c>
-      <c r="G175" s="59"/>
-      <c r="H175" s="75"/>
-      <c r="I175" s="59"/>
+      <c r="F175" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="G175" s="33"/>
+      <c r="H175" s="34"/>
+      <c r="I175" s="33"/>
       <c r="J175" s="5"/>
       <c r="K175" s="9"/>
     </row>
-    <row r="176" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B176" s="13" t="s">
+    <row r="176" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="C176" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="D176" s="14"/>
-      <c r="E176" s="17" t="s">
+      <c r="C176" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="D176" s="30"/>
+      <c r="E176" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="F176" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="G176" s="59"/>
-      <c r="H176" s="75"/>
-      <c r="I176" s="59"/>
+      <c r="F176" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="G176" s="33"/>
+      <c r="H176" s="34"/>
+      <c r="I176" s="33"/>
       <c r="J176" s="5"/>
       <c r="K176" s="9"/>
     </row>
-    <row r="177" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="15" t="s">
+    <row r="177" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="36" t="s">
         <v>234</v>
       </c>
-      <c r="C177" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="D177" s="16"/>
-      <c r="E177" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="F177" s="38" t="s">
+      <c r="C177" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="G177" s="60"/>
-      <c r="H177" s="76"/>
-      <c r="I177" s="60"/>
+      <c r="D177" s="37"/>
+      <c r="E177" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="F177" s="45" t="s">
+        <v>519</v>
+      </c>
+      <c r="G177" s="40"/>
+      <c r="H177" s="41"/>
+      <c r="I177" s="40"/>
       <c r="J177" s="5"/>
       <c r="K177" s="9"/>
     </row>
-    <row r="178" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="13" t="s">
+    <row r="178" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="C178" s="14" t="s">
+      <c r="C178" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D178" s="14"/>
-      <c r="E178" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="F178" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="G178" s="59" t="s">
+      <c r="D178" s="23"/>
+      <c r="E178" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="F178" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="G178" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="H178" s="75" t="s">
+      <c r="H178" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="I178" s="59"/>
+      <c r="I178" s="26"/>
       <c r="J178" s="5"/>
       <c r="K178" s="9"/>
     </row>
-    <row r="179" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="13" t="s">
+    <row r="179" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C179" s="14" t="s">
+      <c r="C179" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="D179" s="14"/>
-      <c r="E179" s="17" t="s">
+      <c r="D179" s="30"/>
+      <c r="E179" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="F179" s="22" t="s">
+      <c r="F179" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="G179" s="59"/>
-      <c r="H179" s="75"/>
-      <c r="I179" s="59" t="s">
+      <c r="G179" s="33"/>
+      <c r="H179" s="34"/>
+      <c r="I179" s="33" t="s">
         <v>129</v>
       </c>
       <c r="J179" s="5"/>
       <c r="K179" s="9"/>
     </row>
-    <row r="180" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="13" t="s">
+    <row r="180" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C180" s="14" t="s">
+      <c r="C180" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="D180" s="14"/>
-      <c r="E180" s="17" t="s">
-        <v>326</v>
-      </c>
-      <c r="F180" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="G180" s="66" t="s">
+      <c r="D180" s="30"/>
+      <c r="E180" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="F180" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="G180" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H180" s="75"/>
-      <c r="I180" s="59"/>
+      <c r="H180" s="34"/>
+      <c r="I180" s="33"/>
       <c r="J180" s="5"/>
       <c r="K180" s="9"/>
     </row>
-    <row r="181" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="13" t="s">
+    <row r="181" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="C181" s="14" t="s">
+      <c r="C181" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D181" s="14"/>
-      <c r="E181" s="17" t="s">
+      <c r="D181" s="30"/>
+      <c r="E181" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="F181" s="22" t="s">
+      <c r="F181" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="G181" s="59"/>
-      <c r="H181" s="75" t="s">
+      <c r="G181" s="33"/>
+      <c r="H181" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="I181" s="59" t="s">
+      <c r="I181" s="33" t="s">
         <v>135</v>
       </c>
       <c r="J181" s="5"/>
       <c r="K181" s="9"/>
     </row>
-    <row r="182" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B182" s="35" t="s">
+    <row r="182" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B182" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C182" s="36" t="s">
+      <c r="C182" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="D182" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="E182" s="37" t="s">
+      <c r="D182" s="69" t="s">
+        <v>617</v>
+      </c>
+      <c r="E182" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="F182" s="56" t="s">
+      <c r="F182" s="71" t="s">
         <v>169</v>
       </c>
       <c r="G182" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="H182" s="83"/>
-      <c r="I182" s="88" t="s">
+      <c r="H182" s="73"/>
+      <c r="I182" s="74" t="s">
         <v>171</v>
       </c>
       <c r="J182" s="5"/>
       <c r="K182" s="9"/>
     </row>
-    <row r="183" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -7190,10 +7101,12 @@
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B184" s="79" t="s">
+        <v>621</v>
+      </c>
+      <c r="C184" s="79"/>
+      <c r="D184" s="79"/>
       <c r="E184" s="3"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
@@ -7201,12 +7114,10 @@
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B185" s="89" t="s">
-        <v>618</v>
-      </c>
-      <c r="C185" s="89"/>
-      <c r="D185" s="89"/>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
@@ -7214,24 +7125,16 @@
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5"/>
-    </row>
   </sheetData>
   <autoFilter ref="B7:J171" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="https://ason.ch/api/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="27" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"-,Bold"Payroll Engine&amp;C&amp;D&amp;RPage &amp;P</oddFooter>
+  </headerFooter>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Documents/PayrollRestServicesEndpoints.xlsx
+++ b/Documents/PayrollRestServicesEndpoints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shared\PayrollEngine\Repos\PayrollEngine\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EFF7D2-6E49-447B-AD3C-F42F0FEBB7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21965E4-19A4-4D68-BE58-EF52E8B34925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="622">
   <si>
     <t>Tenant</t>
   </si>
@@ -1977,9 +1977,6 @@
   </si>
   <si>
     <t>Payroll Engine - REST Service Endpoints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        </t>
   </si>
   <si>
     <t>an: attribute name</t>
@@ -3169,8 +3166,8 @@
   <dimension ref="B1:K185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="7" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3215,7 +3212,7 @@
     </row>
     <row r="5" spans="2:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3452,7 +3449,7 @@
         <v>597</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>183</v>
@@ -3524,7 +3521,7 @@
         <v>172</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E19" s="49" t="s">
         <v>183</v>
@@ -3740,7 +3737,7 @@
         <v>173</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E29" s="58" t="s">
         <v>183</v>
@@ -3760,20 +3757,20 @@
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="22" t="s">
-        <v>616</v>
+        <v>186</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>481</v>
+        <v>184</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="24" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>482</v>
+        <v>326</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="26"/>
@@ -3782,223 +3779,249 @@
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="29" t="s">
-        <v>479</v>
+        <v>186</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>484</v>
+        <v>185</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="31" t="s">
-        <v>411</v>
+        <v>186</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>485</v>
+        <v>187</v>
       </c>
       <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="33"/>
+      <c r="H31" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>474</v>
+      </c>
       <c r="J31" s="5"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="44" t="s">
-        <v>487</v>
-      </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="33"/>
+      <c r="B32" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>538</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>616</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>540</v>
+      </c>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62" t="s">
+        <v>541</v>
+      </c>
       <c r="J32" s="5"/>
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="F33" s="44" t="s">
-        <v>489</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="33"/>
+      <c r="B33" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="5"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="29" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="31" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="F34" s="44" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="G34" s="33"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="33"/>
+      <c r="H34" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>471</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>493</v>
-      </c>
-      <c r="G35" s="33"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="33"/>
+      <c r="B35" s="56" t="s">
+        <v>463</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>542</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>616</v>
+      </c>
+      <c r="E35" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>544</v>
+      </c>
+      <c r="H35" s="61"/>
+      <c r="I35" s="62" t="s">
+        <v>545</v>
+      </c>
       <c r="J35" s="5"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>495</v>
-      </c>
-      <c r="G36" s="33"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="33"/>
+      <c r="B36" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="H36" s="27"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="5"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="36" t="s">
-        <v>479</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="F37" s="45" t="s">
-        <v>497</v>
-      </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="40"/>
+      <c r="B37" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>515</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31" t="s">
+        <v>510</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="33" t="s">
+        <v>517</v>
+      </c>
       <c r="J37" s="5"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="26"/>
+      <c r="B38" s="29" t="s">
+        <v>510</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>560</v>
+      </c>
+      <c r="H38" s="34"/>
+      <c r="I38" s="33"/>
       <c r="J38" s="5"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="33"/>
+      <c r="B39" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="G39" s="40"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="40" t="s">
+        <v>561</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="33"/>
+      <c r="B40" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>481</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="26"/>
       <c r="J40" s="5"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="D41" s="30"/>
       <c r="E41" s="31" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="34"/>
@@ -4008,17 +4031,17 @@
     </row>
     <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="D42" s="30"/>
       <c r="E42" s="31" t="s">
-        <v>452</v>
+        <v>45</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="G42" s="33"/>
       <c r="H42" s="34"/>
@@ -4028,19 +4051,17 @@
     </row>
     <row r="43" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>36</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="D43" s="30"/>
       <c r="E43" s="31" t="s">
-        <v>270</v>
+        <v>451</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>268</v>
+        <v>489</v>
       </c>
       <c r="G43" s="33"/>
       <c r="H43" s="34"/>
@@ -4050,19 +4071,17 @@
     </row>
     <row r="44" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>36</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="D44" s="30"/>
       <c r="E44" s="31" t="s">
-        <v>95</v>
+        <v>452</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>97</v>
+        <v>491</v>
       </c>
       <c r="G44" s="33"/>
       <c r="H44" s="34"/>
@@ -4071,100 +4090,104 @@
       <c r="K44" s="9"/>
     </row>
     <row r="45" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>423</v>
-      </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="F45" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="G45" s="40"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="40"/>
+      <c r="B45" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="33"/>
       <c r="J45" s="5"/>
       <c r="K45" s="9"/>
     </row>
     <row r="46" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="26"/>
+      <c r="B46" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="33"/>
       <c r="J46" s="5"/>
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="33"/>
+      <c r="B47" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="G47" s="40"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="40"/>
       <c r="J47" s="5"/>
       <c r="K47" s="9"/>
     </row>
     <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>417</v>
-      </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="33"/>
+      <c r="B48" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>267</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="26"/>
       <c r="J48" s="5"/>
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="29" t="s">
-        <v>5</v>
+        <v>480</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="D49" s="30"/>
       <c r="E49" s="31" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="G49" s="33"/>
       <c r="H49" s="34"/>
@@ -4174,17 +4197,17 @@
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="29" t="s">
-        <v>5</v>
+        <v>480</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>456</v>
+        <v>73</v>
       </c>
       <c r="D50" s="30"/>
       <c r="E50" s="31" t="s">
-        <v>452</v>
+        <v>45</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="G50" s="33"/>
       <c r="H50" s="34"/>
@@ -4194,19 +4217,17 @@
     </row>
     <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="29" t="s">
-        <v>5</v>
+        <v>480</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>36</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="D51" s="30"/>
       <c r="E51" s="31" t="s">
-        <v>270</v>
+        <v>451</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>272</v>
+        <v>453</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="34"/>
@@ -4216,19 +4237,17 @@
     </row>
     <row r="52" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="29" t="s">
-        <v>5</v>
+        <v>480</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>36</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="D52" s="30"/>
       <c r="E52" s="31" t="s">
-        <v>95</v>
+        <v>452</v>
       </c>
       <c r="F52" s="44" t="s">
-        <v>96</v>
+        <v>454</v>
       </c>
       <c r="G52" s="33"/>
       <c r="H52" s="34"/>
@@ -4237,230 +4256,210 @@
       <c r="K52" s="9"/>
     </row>
     <row r="53" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>424</v>
-      </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="F53" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="G53" s="40"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="40"/>
+      <c r="B53" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="G53" s="33"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="33"/>
       <c r="J53" s="5"/>
       <c r="K53" s="9"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="H54" s="27"/>
-      <c r="I54" s="26"/>
+      <c r="B54" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="G54" s="33"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="33"/>
       <c r="J54" s="5"/>
       <c r="K54" s="9"/>
     </row>
     <row r="55" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="F55" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="34" t="s">
-        <v>473</v>
-      </c>
-      <c r="I55" s="33" t="s">
-        <v>474</v>
-      </c>
+      <c r="B55" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="G55" s="40"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="40"/>
       <c r="J55" s="5"/>
       <c r="K55" s="9"/>
     </row>
     <row r="56" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="C56" s="57" t="s">
-        <v>538</v>
-      </c>
-      <c r="D56" s="57" t="s">
-        <v>617</v>
-      </c>
-      <c r="E56" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="F56" s="59" t="s">
-        <v>539</v>
-      </c>
-      <c r="G56" s="60" t="s">
-        <v>540</v>
-      </c>
-      <c r="H56" s="61"/>
-      <c r="I56" s="62" t="s">
-        <v>541</v>
-      </c>
+      <c r="B56" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="H56" s="27"/>
+      <c r="I56" s="26"/>
       <c r="J56" s="5"/>
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="22" t="s">
-        <v>463</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>467</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="H57" s="27"/>
-      <c r="I57" s="26"/>
+      <c r="B57" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="G57" s="33"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="33"/>
       <c r="J57" s="5"/>
       <c r="K57" s="9"/>
     </row>
     <row r="58" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="29" t="s">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>466</v>
+        <v>75</v>
       </c>
       <c r="D58" s="30"/>
       <c r="E58" s="31" t="s">
-        <v>463</v>
+        <v>45</v>
       </c>
       <c r="F58" s="44" t="s">
-        <v>468</v>
+        <v>417</v>
       </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="I58" s="33" t="s">
-        <v>471</v>
-      </c>
+      <c r="H58" s="34"/>
+      <c r="I58" s="33"/>
       <c r="J58" s="5"/>
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="56" t="s">
-        <v>463</v>
-      </c>
-      <c r="C59" s="57" t="s">
-        <v>542</v>
-      </c>
-      <c r="D59" s="57" t="s">
-        <v>617</v>
-      </c>
-      <c r="E59" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59" s="59" t="s">
-        <v>543</v>
-      </c>
-      <c r="G59" s="60" t="s">
-        <v>544</v>
-      </c>
-      <c r="H59" s="61"/>
-      <c r="I59" s="62" t="s">
-        <v>545</v>
-      </c>
+      <c r="B59" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="F59" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="G59" s="33"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="33"/>
       <c r="J59" s="5"/>
       <c r="K59" s="9"/>
     </row>
     <row r="60" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="F60" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="H60" s="27"/>
-      <c r="I60" s="26"/>
+      <c r="B60" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="D60" s="30"/>
+      <c r="E60" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="F60" s="44" t="s">
+        <v>458</v>
+      </c>
+      <c r="G60" s="33"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="33"/>
       <c r="J60" s="5"/>
       <c r="K60" s="9"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="29" t="s">
-        <v>510</v>
+        <v>5</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>515</v>
-      </c>
-      <c r="D61" s="30"/>
+        <v>93</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="E61" s="31" t="s">
-        <v>510</v>
+        <v>270</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>516</v>
+        <v>272</v>
       </c>
       <c r="G61" s="33"/>
       <c r="H61" s="34"/>
-      <c r="I61" s="33" t="s">
-        <v>517</v>
-      </c>
+      <c r="I61" s="33"/>
       <c r="J61" s="5"/>
       <c r="K61" s="9"/>
     </row>
     <row r="62" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="29" t="s">
-        <v>510</v>
+        <v>5</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>562</v>
-      </c>
-      <c r="D62" s="30"/>
+        <v>94</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="E62" s="31" t="s">
-        <v>557</v>
+        <v>95</v>
       </c>
       <c r="F62" s="44" t="s">
-        <v>558</v>
-      </c>
-      <c r="G62" s="35" t="s">
-        <v>560</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G62" s="33"/>
       <c r="H62" s="34"/>
       <c r="I62" s="33"/>
       <c r="J62" s="5"/>
@@ -4468,23 +4467,21 @@
     </row>
     <row r="63" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="36" t="s">
-        <v>510</v>
+        <v>5</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>563</v>
+        <v>424</v>
       </c>
       <c r="D63" s="37"/>
       <c r="E63" s="38" t="s">
-        <v>556</v>
+        <v>419</v>
       </c>
       <c r="F63" s="45" t="s">
-        <v>559</v>
+        <v>421</v>
       </c>
       <c r="G63" s="40"/>
       <c r="H63" s="41"/>
-      <c r="I63" s="40" t="s">
-        <v>561</v>
-      </c>
+      <c r="I63" s="40"/>
       <c r="J63" s="5"/>
       <c r="K63" s="9"/>
     </row>
@@ -4542,7 +4539,7 @@
         <v>174</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E66" s="49" t="s">
         <v>183</v>
@@ -4756,7 +4753,7 @@
         <v>362</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E76" s="31" t="s">
         <v>190</v>
@@ -4802,7 +4799,7 @@
         <v>546</v>
       </c>
       <c r="D78" s="48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E78" s="49" t="s">
         <v>183</v>
@@ -5720,7 +5717,7 @@
         <v>409</v>
       </c>
       <c r="D119" s="48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E119" s="49" t="s">
         <v>183</v>
@@ -5948,7 +5945,7 @@
         <v>226</v>
       </c>
       <c r="D129" s="48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E129" s="49" t="s">
         <v>183</v>
@@ -6020,7 +6017,7 @@
         <v>229</v>
       </c>
       <c r="D132" s="48" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E132" s="49" t="s">
         <v>183</v>
@@ -6128,7 +6125,7 @@
         <v>576</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E137" s="31" t="s">
         <v>364</v>
@@ -6670,7 +6667,7 @@
         <v>175</v>
       </c>
       <c r="D163" s="57" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E163" s="58" t="s">
         <v>183</v>
@@ -6878,7 +6875,7 @@
         <v>248</v>
       </c>
       <c r="D173" s="30" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E173" s="31" t="s">
         <v>251</v>
@@ -7072,7 +7069,7 @@
         <v>176</v>
       </c>
       <c r="D182" s="69" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E182" s="70" t="s">
         <v>183</v>
@@ -7103,7 +7100,7 @@
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B184" s="79" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C184" s="79"/>
       <c r="D184" s="79"/>
